--- a/doc/onteacher.xlsx
+++ b/doc/onteacher.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2910" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Simple" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,15 +29,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>校内方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>郭登高</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我嘞个去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇塞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵子龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关云长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小方向1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小土木工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小城市建设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小软件工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小足球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小运动学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小篮球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张大飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内专业</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -49,7 +121,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>方向</t>
+      <t>专业</t>
     </r>
     <r>
       <rPr>
@@ -63,100 +135,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我嘞个去</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哇塞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵子龙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关云长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>土木工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市建设</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>足球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>篮球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究方向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小方向1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小土木工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小城市建设</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小软件工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小足球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小运动学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小篮球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>专业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张缉</t>
+  </si>
+  <si>
+    <t>大风车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字4</t>
+  </si>
+  <si>
+    <t>名字2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名2</t>
+  </si>
+  <si>
+    <t>名字5</t>
+  </si>
+  <si>
+    <t>姓名3</t>
+  </si>
+  <si>
+    <t>名字6</t>
   </si>
 </sst>
 </file>
@@ -540,10 +574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Simple"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -554,7 +588,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -563,10 +597,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
@@ -576,16 +610,16 @@
         <v>99123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="2"/>
@@ -595,16 +629,16 @@
         <v>99231</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="2"/>
@@ -614,16 +648,16 @@
         <v>991</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
@@ -633,16 +667,16 @@
         <v>992</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
@@ -652,16 +686,16 @@
         <v>993</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
@@ -671,16 +705,16 @@
         <v>994</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
@@ -690,16 +724,16 @@
         <v>995</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
@@ -709,19 +743,223 @@
         <v>996</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>997</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>998</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>999</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
